--- a/MarsFramework/ExcelData/TestDataManageListings.xlsx
+++ b/MarsFramework/ExcelData/TestDataManageListings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prabha\Desktop\Prabha\Industry Connect\TEAM\ProjectMarsManageListing-master\MarsFramework\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\INTERNSHIP\TASK 2\ProjectMars_Nunit\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8048A1-B7F9-4185-A8E7-FBBE72016E57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0EF81D6-2751-4AA3-B2E4-00980096D1E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Url</t>
   </si>
@@ -66,13 +66,10 @@
     <t>http://192.168.99.100:5000/</t>
   </si>
   <si>
-    <t>password123</t>
-  </si>
-  <si>
-    <t>prabhabuoyant24.7@gmail.com</t>
-  </si>
-  <si>
     <t>Automation Testing</t>
+  </si>
+  <si>
+    <t>maria.saronia@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -129,7 +126,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
@@ -138,6 +135,9 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -484,16 +484,16 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" customWidth="1"/>
-    <col min="2" max="2" width="22.7265625" customWidth="1"/>
-    <col min="3" max="3" width="27.81640625" customWidth="1"/>
-    <col min="4" max="4" width="18.54296875" customWidth="1"/>
-    <col min="5" max="5" width="27.81640625" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" customWidth="1"/>
+    <col min="5" max="5" width="27.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -510,7 +510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -539,18 +539,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.81640625" customWidth="1"/>
+    <col min="1" max="1" width="45.77734375" customWidth="1"/>
     <col min="2" max="2" width="42" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,25 +561,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>14</v>
+      <c r="C2" s="7">
+        <v>123456</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{21B5823B-70AE-4D96-9C52-E18AED8D915E}"/>
-    <hyperlink ref="C2" r:id="rId2" display="Test@123" xr:uid="{7BDF7333-BBF1-49D3-986F-E9F3673CD02B}"/>
-    <hyperlink ref="B2" r:id="rId3" xr:uid="{33E55775-FC93-475A-8FA4-FE8715CCF43A}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{9E2C9610-03E7-4723-9F6A-691DA701DAD7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -587,24 +586,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="20.1796875" customWidth="1"/>
-    <col min="5" max="5" width="18.26953125" customWidth="1"/>
-    <col min="6" max="6" width="24.81640625" customWidth="1"/>
+    <col min="1" max="4" width="20.21875" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" customWidth="1"/>
+    <col min="6" max="6" width="24.77734375" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="12" width="12.7265625" customWidth="1"/>
-    <col min="13" max="13" width="14.453125" customWidth="1"/>
-    <col min="14" max="14" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.453125" customWidth="1"/>
-    <col min="16" max="16" width="10.7265625" customWidth="1"/>
+    <col min="8" max="12" width="12.77734375" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" customWidth="1"/>
+    <col min="14" max="14" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.44140625" customWidth="1"/>
+    <col min="16" max="16" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -627,9 +626,9 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
